--- a/tgia-backend/templates/TGIA分析需求單_v.20251201.xlsx
+++ b/tgia-backend/templates/TGIA分析需求單_v.20251201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Desktop/TGIA/專案/RNAseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA72C70-A0B5-C34E-B942-95598150AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF3A6E-FBB3-B049-BA7C-9AAF13585588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
   <si>
     <t>Email</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Rnor_6.0</t>
   </si>
   <si>
-    <t>P-value</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>GRCm38.p6</t>
-  </si>
-  <si>
-    <t>P-adjust</t>
   </si>
   <si>
     <t>Fruit Fly</t>
@@ -3450,6 +3444,10 @@
       </rPr>
       <t>參考基因體資料（必填）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-adjust</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4319,7 +4317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4502,10 +4500,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -4657,6 +4651,127 @@
     <xf numFmtId="0" fontId="45" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -4667,10 +4782,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4719,98 +4830,95 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4871,112 +4979,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5018,6 +5033,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5054,53 +5072,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10120,7 +10104,7 @@
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScale="82" zoomScaleNormal="70" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E121" sqref="E121:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
@@ -10136,72 +10120,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="27" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="A1" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="71" customHeight="1">
-      <c r="A2" s="152" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
+      <c r="A2" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" ht="19">
-      <c r="A3" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
+      <c r="A3" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="31">
-      <c r="A4" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="143"/>
+      <c r="A4" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" ht="27">
       <c r="A5" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="21"/>
@@ -10209,34 +10193,34 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="31">
-      <c r="A6" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="A6" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" ht="28">
       <c r="A7" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="17" t="s">
@@ -10245,156 +10229,156 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="31">
-      <c r="A8" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
+      <c r="A8" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="131"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="31">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+    </row>
+    <row r="10" spans="1:10" s="79" customFormat="1" ht="31">
+      <c r="A10" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+    </row>
+    <row r="11" spans="1:10" s="79" customFormat="1" ht="26">
+      <c r="A11" s="76"/>
+      <c r="B11" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+    </row>
+    <row r="12" spans="1:10" s="79" customFormat="1" ht="92" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="1:10" s="80" customFormat="1" ht="31">
-      <c r="A10" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
-    </row>
-    <row r="11" spans="1:10" s="80" customFormat="1" ht="26">
-      <c r="A11" s="77"/>
-      <c r="B11" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-    </row>
-    <row r="12" spans="1:10" s="80" customFormat="1" ht="92" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="80" customFormat="1" ht="30">
-      <c r="A13" s="77"/>
-      <c r="B13" s="83" t="s">
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+    </row>
+    <row r="13" spans="1:10" s="79" customFormat="1" ht="30">
+      <c r="A13" s="76"/>
+      <c r="B13" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="161" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+    </row>
+    <row r="14" spans="1:10" s="79" customFormat="1" ht="30">
+      <c r="A14" s="76"/>
+      <c r="B14" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="121" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-    </row>
-    <row r="14" spans="1:10" s="80" customFormat="1" ht="30">
-      <c r="A14" s="77"/>
-      <c r="B14" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="29">
-      <c r="A15" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
+      <c r="A15" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="F16" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="155" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
     </row>
     <row r="17" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="35">
@@ -10405,10 +10389,10 @@
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="35">
@@ -10419,10 +10403,10 @@
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
     </row>
     <row r="19" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="35">
@@ -10433,10 +10417,10 @@
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="35">
@@ -10447,10 +10431,10 @@
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="35">
@@ -10461,10 +10445,10 @@
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
     </row>
     <row r="22" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="35">
@@ -10475,10 +10459,10 @@
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="35">
@@ -10489,10 +10473,10 @@
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="35">
@@ -10503,10 +10487,10 @@
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="35">
@@ -10517,10 +10501,10 @@
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="35">
@@ -10531,10 +10515,10 @@
       <c r="D26" s="43"/>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="35">
@@ -10545,10 +10529,10 @@
       <c r="D27" s="43"/>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="35">
@@ -10559,10 +10543,10 @@
       <c r="D28" s="43"/>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
     </row>
     <row r="29" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="35">
@@ -10573,10 +10557,10 @@
       <c r="D29" s="43"/>
       <c r="E29" s="39"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="35">
@@ -10587,10 +10571,10 @@
       <c r="D30" s="43"/>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="35">
@@ -10601,10 +10585,10 @@
       <c r="D31" s="43"/>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="35">
@@ -10615,10 +10599,10 @@
       <c r="D32" s="43"/>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
     </row>
     <row r="33" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="35">
@@ -10629,10 +10613,10 @@
       <c r="D33" s="43"/>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="35">
@@ -10643,10 +10627,10 @@
       <c r="D34" s="43"/>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="35">
@@ -10657,10 +10641,10 @@
       <c r="D35" s="43"/>
       <c r="E35" s="39"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="35">
@@ -10671,10 +10655,10 @@
       <c r="D36" s="43"/>
       <c r="E36" s="39"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="35">
@@ -10685,10 +10669,10 @@
       <c r="D37" s="43"/>
       <c r="E37" s="39"/>
       <c r="F37" s="44"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="35">
@@ -10699,10 +10683,10 @@
       <c r="D38" s="43"/>
       <c r="E38" s="39"/>
       <c r="F38" s="44"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="35">
@@ -10713,10 +10697,10 @@
       <c r="D39" s="43"/>
       <c r="E39" s="39"/>
       <c r="F39" s="44"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="35">
@@ -10727,10 +10711,10 @@
       <c r="D40" s="43"/>
       <c r="E40" s="39"/>
       <c r="F40" s="44"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="35">
@@ -10741,10 +10725,10 @@
       <c r="D41" s="43"/>
       <c r="E41" s="39"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="35">
@@ -10755,10 +10739,10 @@
       <c r="D42" s="43"/>
       <c r="E42" s="39"/>
       <c r="F42" s="44"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="35">
@@ -10769,10 +10753,10 @@
       <c r="D43" s="43"/>
       <c r="E43" s="39"/>
       <c r="F43" s="44"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
     </row>
     <row r="44" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="35">
@@ -10783,10 +10767,10 @@
       <c r="D44" s="43"/>
       <c r="E44" s="39"/>
       <c r="F44" s="44"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="155"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
     </row>
     <row r="45" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="35">
@@ -10797,10 +10781,10 @@
       <c r="D45" s="43"/>
       <c r="E45" s="39"/>
       <c r="F45" s="44"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
     </row>
     <row r="46" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="35">
@@ -10811,10 +10795,10 @@
       <c r="D46" s="47"/>
       <c r="E46" s="48"/>
       <c r="F46" s="44"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
     </row>
     <row r="47" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="35">
@@ -10825,10 +10809,10 @@
       <c r="D47" s="47"/>
       <c r="E47" s="48"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
     </row>
     <row r="48" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="35">
@@ -10839,10 +10823,10 @@
       <c r="D48" s="47"/>
       <c r="E48" s="48"/>
       <c r="F48" s="44"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
     </row>
     <row r="49" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="35">
@@ -10853,10 +10837,10 @@
       <c r="D49" s="47"/>
       <c r="E49" s="48"/>
       <c r="F49" s="44"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
     </row>
     <row r="50" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="35">
@@ -10867,10 +10851,10 @@
       <c r="D50" s="47"/>
       <c r="E50" s="48"/>
       <c r="F50" s="44"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
     </row>
     <row r="51" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="35">
@@ -10881,10 +10865,10 @@
       <c r="D51" s="47"/>
       <c r="E51" s="48"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
     </row>
     <row r="52" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="35">
@@ -10895,10 +10879,10 @@
       <c r="D52" s="47"/>
       <c r="E52" s="48"/>
       <c r="F52" s="44"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="35">
@@ -10909,10 +10893,10 @@
       <c r="D53" s="47"/>
       <c r="E53" s="48"/>
       <c r="F53" s="44"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
     </row>
     <row r="54" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="35">
@@ -10923,10 +10907,10 @@
       <c r="D54" s="47"/>
       <c r="E54" s="48"/>
       <c r="F54" s="44"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
     </row>
     <row r="55" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="35">
@@ -10937,10 +10921,10 @@
       <c r="D55" s="47"/>
       <c r="E55" s="48"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="155"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
     </row>
     <row r="56" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="35">
@@ -10951,10 +10935,10 @@
       <c r="D56" s="47"/>
       <c r="E56" s="48"/>
       <c r="F56" s="44"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
     </row>
     <row r="57" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="35">
@@ -10965,10 +10949,10 @@
       <c r="D57" s="47"/>
       <c r="E57" s="48"/>
       <c r="F57" s="44"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
     </row>
     <row r="58" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="35">
@@ -10979,10 +10963,10 @@
       <c r="D58" s="47"/>
       <c r="E58" s="48"/>
       <c r="F58" s="44"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
     </row>
     <row r="59" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="35">
@@ -10993,10 +10977,10 @@
       <c r="D59" s="47"/>
       <c r="E59" s="48"/>
       <c r="F59" s="44"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
     </row>
     <row r="60" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="35">
@@ -11007,10 +10991,10 @@
       <c r="D60" s="47"/>
       <c r="E60" s="48"/>
       <c r="F60" s="44"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
     </row>
     <row r="61" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="35">
@@ -11021,10 +11005,10 @@
       <c r="D61" s="47"/>
       <c r="E61" s="48"/>
       <c r="F61" s="44"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
     </row>
     <row r="62" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="35">
@@ -11035,10 +11019,10 @@
       <c r="D62" s="47"/>
       <c r="E62" s="48"/>
       <c r="F62" s="44"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
     </row>
     <row r="63" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="35">
@@ -11049,10 +11033,10 @@
       <c r="D63" s="47"/>
       <c r="E63" s="48"/>
       <c r="F63" s="44"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
     </row>
     <row r="64" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="35">
@@ -11063,10 +11047,10 @@
       <c r="D64" s="47"/>
       <c r="E64" s="48"/>
       <c r="F64" s="44"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
     </row>
     <row r="65" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="35">
@@ -11077,10 +11061,10 @@
       <c r="D65" s="47"/>
       <c r="E65" s="48"/>
       <c r="F65" s="44"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
     </row>
     <row r="66" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="35">
@@ -11091,10 +11075,10 @@
       <c r="D66" s="47"/>
       <c r="E66" s="48"/>
       <c r="F66" s="44"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
     </row>
     <row r="67" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="35">
@@ -11105,10 +11089,10 @@
       <c r="D67" s="47"/>
       <c r="E67" s="48"/>
       <c r="F67" s="44"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
     </row>
     <row r="68" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="35">
@@ -11119,10 +11103,10 @@
       <c r="D68" s="47"/>
       <c r="E68" s="48"/>
       <c r="F68" s="44"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="155"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
     </row>
     <row r="69" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="35">
@@ -11133,10 +11117,10 @@
       <c r="D69" s="47"/>
       <c r="E69" s="48"/>
       <c r="F69" s="44"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
     </row>
     <row r="70" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="35">
@@ -11147,10 +11131,10 @@
       <c r="D70" s="47"/>
       <c r="E70" s="48"/>
       <c r="F70" s="44"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
     </row>
     <row r="71" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="35">
@@ -11161,10 +11145,10 @@
       <c r="D71" s="47"/>
       <c r="E71" s="48"/>
       <c r="F71" s="44"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
     </row>
     <row r="72" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="35">
@@ -11175,10 +11159,10 @@
       <c r="D72" s="47"/>
       <c r="E72" s="48"/>
       <c r="F72" s="44"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
     </row>
     <row r="73" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="35">
@@ -11189,10 +11173,10 @@
       <c r="D73" s="47"/>
       <c r="E73" s="48"/>
       <c r="F73" s="44"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="155"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="155"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="144"/>
     </row>
     <row r="74" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="35">
@@ -11203,10 +11187,10 @@
       <c r="D74" s="47"/>
       <c r="E74" s="48"/>
       <c r="F74" s="44"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="155"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
     </row>
     <row r="75" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="35">
@@ -11217,10 +11201,10 @@
       <c r="D75" s="47"/>
       <c r="E75" s="48"/>
       <c r="F75" s="44"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="155"/>
-      <c r="I75" s="155"/>
-      <c r="J75" s="155"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="144"/>
+      <c r="J75" s="144"/>
     </row>
     <row r="76" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="35">
@@ -11231,10 +11215,10 @@
       <c r="D76" s="47"/>
       <c r="E76" s="48"/>
       <c r="F76" s="44"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="155"/>
-      <c r="I76" s="155"/>
-      <c r="J76" s="155"/>
+      <c r="G76" s="147"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="144"/>
     </row>
     <row r="77" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="35">
@@ -11245,10 +11229,10 @@
       <c r="D77" s="47"/>
       <c r="E77" s="48"/>
       <c r="F77" s="44"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="155"/>
-      <c r="I77" s="155"/>
-      <c r="J77" s="155"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
     </row>
     <row r="78" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="35">
@@ -11259,10 +11243,10 @@
       <c r="D78" s="47"/>
       <c r="E78" s="48"/>
       <c r="F78" s="44"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="155"/>
-      <c r="I78" s="155"/>
-      <c r="J78" s="155"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
     </row>
     <row r="79" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="35">
@@ -11273,10 +11257,10 @@
       <c r="D79" s="47"/>
       <c r="E79" s="48"/>
       <c r="F79" s="44"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="155"/>
-      <c r="I79" s="155"/>
-      <c r="J79" s="155"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="144"/>
     </row>
     <row r="80" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="35">
@@ -11287,10 +11271,10 @@
       <c r="D80" s="47"/>
       <c r="E80" s="48"/>
       <c r="F80" s="44"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="155"/>
-      <c r="I80" s="155"/>
-      <c r="J80" s="155"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="144"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="144"/>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="35">
@@ -11301,10 +11285,10 @@
       <c r="D81" s="47"/>
       <c r="E81" s="48"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="155"/>
-      <c r="I81" s="155"/>
-      <c r="J81" s="155"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
     </row>
     <row r="82" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="35">
@@ -11315,10 +11299,10 @@
       <c r="D82" s="47"/>
       <c r="E82" s="48"/>
       <c r="F82" s="44"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="155"/>
-      <c r="I82" s="155"/>
-      <c r="J82" s="155"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="144"/>
     </row>
     <row r="83" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="35">
@@ -11329,10 +11313,10 @@
       <c r="D83" s="47"/>
       <c r="E83" s="48"/>
       <c r="F83" s="44"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="144"/>
+      <c r="I83" s="144"/>
+      <c r="J83" s="144"/>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="35">
@@ -11343,10 +11327,10 @@
       <c r="D84" s="47"/>
       <c r="E84" s="48"/>
       <c r="F84" s="44"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="155"/>
-      <c r="I84" s="155"/>
-      <c r="J84" s="155"/>
+      <c r="G84" s="147"/>
+      <c r="H84" s="144"/>
+      <c r="I84" s="144"/>
+      <c r="J84" s="144"/>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="35">
@@ -11357,10 +11341,10 @@
       <c r="D85" s="47"/>
       <c r="E85" s="48"/>
       <c r="F85" s="44"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="155"/>
-      <c r="I85" s="155"/>
-      <c r="J85" s="155"/>
+      <c r="G85" s="147"/>
+      <c r="H85" s="144"/>
+      <c r="I85" s="144"/>
+      <c r="J85" s="144"/>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="35">
@@ -11371,10 +11355,10 @@
       <c r="D86" s="47"/>
       <c r="E86" s="48"/>
       <c r="F86" s="44"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="155"/>
-      <c r="I86" s="155"/>
-      <c r="J86" s="155"/>
+      <c r="G86" s="147"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
     </row>
     <row r="87" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="35">
@@ -11385,10 +11369,10 @@
       <c r="D87" s="47"/>
       <c r="E87" s="48"/>
       <c r="F87" s="44"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="155"/>
-      <c r="I87" s="155"/>
-      <c r="J87" s="155"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
     </row>
     <row r="88" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="35">
@@ -11399,10 +11383,10 @@
       <c r="D88" s="47"/>
       <c r="E88" s="48"/>
       <c r="F88" s="44"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="155"/>
-      <c r="I88" s="155"/>
-      <c r="J88" s="155"/>
+      <c r="G88" s="147"/>
+      <c r="H88" s="144"/>
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
     </row>
     <row r="89" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="35">
@@ -11413,10 +11397,10 @@
       <c r="D89" s="47"/>
       <c r="E89" s="48"/>
       <c r="F89" s="44"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="155"/>
-      <c r="I89" s="155"/>
-      <c r="J89" s="155"/>
+      <c r="G89" s="147"/>
+      <c r="H89" s="144"/>
+      <c r="I89" s="144"/>
+      <c r="J89" s="144"/>
     </row>
     <row r="90" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="35">
@@ -11427,10 +11411,10 @@
       <c r="D90" s="47"/>
       <c r="E90" s="48"/>
       <c r="F90" s="44"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="155"/>
-      <c r="I90" s="155"/>
-      <c r="J90" s="155"/>
+      <c r="G90" s="147"/>
+      <c r="H90" s="144"/>
+      <c r="I90" s="144"/>
+      <c r="J90" s="144"/>
     </row>
     <row r="91" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="35">
@@ -11441,10 +11425,10 @@
       <c r="D91" s="47"/>
       <c r="E91" s="48"/>
       <c r="F91" s="44"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="155"/>
-      <c r="I91" s="155"/>
-      <c r="J91" s="155"/>
+      <c r="G91" s="147"/>
+      <c r="H91" s="144"/>
+      <c r="I91" s="144"/>
+      <c r="J91" s="144"/>
     </row>
     <row r="92" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="35">
@@ -11455,10 +11439,10 @@
       <c r="D92" s="47"/>
       <c r="E92" s="48"/>
       <c r="F92" s="44"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="155"/>
-      <c r="J92" s="155"/>
+      <c r="G92" s="147"/>
+      <c r="H92" s="144"/>
+      <c r="I92" s="144"/>
+      <c r="J92" s="144"/>
     </row>
     <row r="93" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="35">
@@ -11469,10 +11453,10 @@
       <c r="D93" s="47"/>
       <c r="E93" s="48"/>
       <c r="F93" s="44"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="155"/>
+      <c r="G93" s="147"/>
+      <c r="H93" s="144"/>
+      <c r="I93" s="144"/>
+      <c r="J93" s="144"/>
     </row>
     <row r="94" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="35">
@@ -11483,10 +11467,10 @@
       <c r="D94" s="47"/>
       <c r="E94" s="48"/>
       <c r="F94" s="44"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="155"/>
-      <c r="I94" s="155"/>
-      <c r="J94" s="155"/>
+      <c r="G94" s="147"/>
+      <c r="H94" s="144"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="144"/>
     </row>
     <row r="95" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="35">
@@ -11497,10 +11481,10 @@
       <c r="D95" s="47"/>
       <c r="E95" s="48"/>
       <c r="F95" s="44"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="144"/>
+      <c r="I95" s="144"/>
+      <c r="J95" s="144"/>
     </row>
     <row r="96" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="35">
@@ -11511,10 +11495,10 @@
       <c r="D96" s="47"/>
       <c r="E96" s="48"/>
       <c r="F96" s="44"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="155"/>
-      <c r="I96" s="155"/>
-      <c r="J96" s="155"/>
+      <c r="G96" s="147"/>
+      <c r="H96" s="144"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="144"/>
     </row>
     <row r="97" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="35">
@@ -11525,10 +11509,10 @@
       <c r="D97" s="47"/>
       <c r="E97" s="48"/>
       <c r="F97" s="44"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="155"/>
-      <c r="J97" s="155"/>
+      <c r="G97" s="147"/>
+      <c r="H97" s="144"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="144"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="35">
@@ -11539,10 +11523,10 @@
       <c r="D98" s="47"/>
       <c r="E98" s="48"/>
       <c r="F98" s="44"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
+      <c r="G98" s="147"/>
+      <c r="H98" s="144"/>
+      <c r="I98" s="144"/>
+      <c r="J98" s="144"/>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="35">
@@ -11553,10 +11537,10 @@
       <c r="D99" s="47"/>
       <c r="E99" s="48"/>
       <c r="F99" s="44"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
+      <c r="G99" s="147"/>
+      <c r="H99" s="144"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="144"/>
     </row>
     <row r="100" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="35">
@@ -11567,10 +11551,10 @@
       <c r="D100" s="47"/>
       <c r="E100" s="48"/>
       <c r="F100" s="44"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
+      <c r="G100" s="147"/>
+      <c r="H100" s="144"/>
+      <c r="I100" s="144"/>
+      <c r="J100" s="144"/>
     </row>
     <row r="101" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="35">
@@ -11581,10 +11565,10 @@
       <c r="D101" s="47"/>
       <c r="E101" s="48"/>
       <c r="F101" s="44"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="155"/>
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
+      <c r="G101" s="147"/>
+      <c r="H101" s="144"/>
+      <c r="I101" s="144"/>
+      <c r="J101" s="144"/>
     </row>
     <row r="102" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="35">
@@ -11595,10 +11579,10 @@
       <c r="D102" s="47"/>
       <c r="E102" s="48"/>
       <c r="F102" s="44"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="155"/>
-      <c r="I102" s="155"/>
-      <c r="J102" s="155"/>
+      <c r="G102" s="147"/>
+      <c r="H102" s="144"/>
+      <c r="I102" s="144"/>
+      <c r="J102" s="144"/>
     </row>
     <row r="103" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="35">
@@ -11609,10 +11593,10 @@
       <c r="D103" s="47"/>
       <c r="E103" s="48"/>
       <c r="F103" s="44"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="155"/>
-      <c r="I103" s="155"/>
-      <c r="J103" s="155"/>
+      <c r="G103" s="147"/>
+      <c r="H103" s="144"/>
+      <c r="I103" s="144"/>
+      <c r="J103" s="144"/>
     </row>
     <row r="104" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="35">
@@ -11623,10 +11607,10 @@
       <c r="D104" s="47"/>
       <c r="E104" s="48"/>
       <c r="F104" s="44"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
+      <c r="G104" s="147"/>
+      <c r="H104" s="144"/>
+      <c r="I104" s="144"/>
+      <c r="J104" s="144"/>
     </row>
     <row r="105" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="35">
@@ -11637,10 +11621,10 @@
       <c r="D105" s="47"/>
       <c r="E105" s="48"/>
       <c r="F105" s="44"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="155"/>
-      <c r="I105" s="155"/>
-      <c r="J105" s="155"/>
+      <c r="G105" s="147"/>
+      <c r="H105" s="144"/>
+      <c r="I105" s="144"/>
+      <c r="J105" s="144"/>
     </row>
     <row r="106" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="35">
@@ -11651,10 +11635,10 @@
       <c r="D106" s="47"/>
       <c r="E106" s="48"/>
       <c r="F106" s="44"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
+      <c r="G106" s="147"/>
+      <c r="H106" s="144"/>
+      <c r="I106" s="144"/>
+      <c r="J106" s="144"/>
     </row>
     <row r="107" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="35">
@@ -11665,10 +11649,10 @@
       <c r="D107" s="47"/>
       <c r="E107" s="48"/>
       <c r="F107" s="44"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="155"/>
-      <c r="J107" s="155"/>
+      <c r="G107" s="147"/>
+      <c r="H107" s="144"/>
+      <c r="I107" s="144"/>
+      <c r="J107" s="144"/>
     </row>
     <row r="108" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="35">
@@ -11679,10 +11663,10 @@
       <c r="D108" s="47"/>
       <c r="E108" s="48"/>
       <c r="F108" s="44"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
+      <c r="G108" s="147"/>
+      <c r="H108" s="144"/>
+      <c r="I108" s="144"/>
+      <c r="J108" s="144"/>
     </row>
     <row r="109" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="35">
@@ -11693,10 +11677,10 @@
       <c r="D109" s="47"/>
       <c r="E109" s="48"/>
       <c r="F109" s="44"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="155"/>
-      <c r="I109" s="155"/>
-      <c r="J109" s="155"/>
+      <c r="G109" s="147"/>
+      <c r="H109" s="144"/>
+      <c r="I109" s="144"/>
+      <c r="J109" s="144"/>
     </row>
     <row r="110" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="35">
@@ -11707,10 +11691,10 @@
       <c r="D110" s="47"/>
       <c r="E110" s="48"/>
       <c r="F110" s="44"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="155"/>
-      <c r="I110" s="155"/>
-      <c r="J110" s="155"/>
+      <c r="G110" s="147"/>
+      <c r="H110" s="144"/>
+      <c r="I110" s="144"/>
+      <c r="J110" s="144"/>
     </row>
     <row r="111" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="35">
@@ -11721,10 +11705,10 @@
       <c r="D111" s="47"/>
       <c r="E111" s="48"/>
       <c r="F111" s="44"/>
-      <c r="G111" s="105"/>
-      <c r="H111" s="155"/>
-      <c r="I111" s="155"/>
-      <c r="J111" s="155"/>
+      <c r="G111" s="147"/>
+      <c r="H111" s="144"/>
+      <c r="I111" s="144"/>
+      <c r="J111" s="144"/>
     </row>
     <row r="112" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="35">
@@ -11735,10 +11719,10 @@
       <c r="D112" s="47"/>
       <c r="E112" s="48"/>
       <c r="F112" s="44"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="155"/>
-      <c r="I112" s="155"/>
-      <c r="J112" s="155"/>
+      <c r="G112" s="147"/>
+      <c r="H112" s="144"/>
+      <c r="I112" s="144"/>
+      <c r="J112" s="144"/>
     </row>
     <row r="113" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="35">
@@ -11749,10 +11733,10 @@
       <c r="D113" s="47"/>
       <c r="E113" s="48"/>
       <c r="F113" s="44"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="155"/>
-      <c r="I113" s="155"/>
-      <c r="J113" s="155"/>
+      <c r="G113" s="147"/>
+      <c r="H113" s="144"/>
+      <c r="I113" s="144"/>
+      <c r="J113" s="144"/>
     </row>
     <row r="114" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="35">
@@ -11763,10 +11747,10 @@
       <c r="D114" s="47"/>
       <c r="E114" s="48"/>
       <c r="F114" s="44"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="155"/>
-      <c r="J114" s="155"/>
+      <c r="G114" s="147"/>
+      <c r="H114" s="144"/>
+      <c r="I114" s="144"/>
+      <c r="J114" s="144"/>
     </row>
     <row r="115" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="35">
@@ -11777,10 +11761,10 @@
       <c r="D115" s="47"/>
       <c r="E115" s="48"/>
       <c r="F115" s="44"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="155"/>
-      <c r="I115" s="155"/>
-      <c r="J115" s="155"/>
+      <c r="G115" s="147"/>
+      <c r="H115" s="144"/>
+      <c r="I115" s="144"/>
+      <c r="J115" s="144"/>
     </row>
     <row r="116" spans="1:10" s="13" customFormat="1" ht="29" customHeight="1">
       <c r="A116" s="35">
@@ -11791,48 +11775,48 @@
       <c r="D116" s="50"/>
       <c r="E116" s="51"/>
       <c r="F116" s="44"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="155"/>
-      <c r="I116" s="155"/>
-      <c r="J116" s="155"/>
+      <c r="G116" s="147"/>
+      <c r="H116" s="144"/>
+      <c r="I116" s="144"/>
+      <c r="J116" s="144"/>
     </row>
     <row r="117" spans="1:10" s="7" customFormat="1" ht="29">
-      <c r="A117" s="134" t="s">
+      <c r="A117" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="125"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
+    </row>
+    <row r="118" spans="1:10" ht="31">
+      <c r="A118" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B117" s="134"/>
-      <c r="C117" s="134"/>
-      <c r="D117" s="134"/>
-      <c r="E117" s="134"/>
-      <c r="F117" s="134"/>
-      <c r="G117" s="134"/>
-      <c r="H117" s="134"/>
-      <c r="I117" s="134"/>
-      <c r="J117" s="134"/>
-    </row>
-    <row r="118" spans="1:10" ht="31">
-      <c r="A118" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B118" s="52" t="s">
+      <c r="D118" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="E118" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="F118" s="149"/>
-      <c r="G118" s="104"/>
-      <c r="H118" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="I118" s="103"/>
-      <c r="J118" s="103"/>
+      <c r="F118" s="138"/>
+      <c r="G118" s="146"/>
+      <c r="H118" s="145" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" s="145"/>
+      <c r="J118" s="145"/>
     </row>
     <row r="119" spans="1:10" ht="27">
       <c r="A119" s="54"/>
@@ -11851,12 +11835,12 @@
       <c r="F119" s="58">
         <v>1</v>
       </c>
-      <c r="G119" s="104"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-    </row>
-    <row r="120" spans="1:10" ht="26">
+      <c r="G119" s="146"/>
+      <c r="H119" s="145"/>
+      <c r="I119" s="145"/>
+      <c r="J119" s="145"/>
+    </row>
+    <row r="120" spans="1:10" ht="27">
       <c r="A120" s="54"/>
       <c r="B120" s="55" t="s">
         <v>6</v>
@@ -11867,270 +11851,268 @@
       <c r="D120" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="60"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
-    </row>
-    <row r="121" spans="1:10" ht="27">
+      <c r="E120" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F120" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="G120" s="146"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+    </row>
+    <row r="121" spans="1:10" ht="26">
       <c r="A121" s="54"/>
       <c r="B121" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="56" t="s">
+      <c r="D121" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="G121" s="104"/>
-      <c r="H121" s="103"/>
-      <c r="I121" s="103"/>
-      <c r="J121" s="103"/>
+      <c r="E121" s="199"/>
+      <c r="F121" s="240"/>
+      <c r="G121" s="146"/>
+      <c r="H121" s="145"/>
+      <c r="I121" s="145"/>
+      <c r="J121" s="145"/>
     </row>
     <row r="122" spans="1:10" ht="26">
       <c r="A122" s="54"/>
       <c r="B122" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122" s="144"/>
-      <c r="F122" s="145"/>
-      <c r="G122" s="104"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="103"/>
-      <c r="J122" s="103"/>
+      <c r="E122" s="201"/>
+      <c r="F122" s="241"/>
+      <c r="G122" s="146"/>
+      <c r="H122" s="145"/>
+      <c r="I122" s="145"/>
+      <c r="J122" s="145"/>
     </row>
     <row r="123" spans="1:10" ht="26">
       <c r="A123" s="54"/>
       <c r="B123" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="146"/>
-      <c r="F123" s="147"/>
-      <c r="G123" s="104"/>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="103"/>
+      <c r="E123" s="201"/>
+      <c r="F123" s="241"/>
+      <c r="G123" s="146"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="145"/>
+      <c r="J123" s="145"/>
     </row>
     <row r="124" spans="1:10" ht="27">
       <c r="A124" s="54"/>
       <c r="B124" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="146"/>
-      <c r="F124" s="147"/>
-      <c r="G124" s="104"/>
-      <c r="H124" s="103"/>
-      <c r="I124" s="103"/>
-      <c r="J124" s="103"/>
+      <c r="E124" s="201"/>
+      <c r="F124" s="241"/>
+      <c r="G124" s="146"/>
+      <c r="H124" s="145"/>
+      <c r="I124" s="145"/>
+      <c r="J124" s="145"/>
     </row>
     <row r="125" spans="1:10" ht="27">
       <c r="A125" s="54"/>
       <c r="B125" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" s="146"/>
-      <c r="F125" s="147"/>
-      <c r="G125" s="104"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="103"/>
+      <c r="E125" s="201"/>
+      <c r="F125" s="241"/>
+      <c r="G125" s="146"/>
+      <c r="H125" s="145"/>
+      <c r="I125" s="145"/>
+      <c r="J125" s="145"/>
     </row>
     <row r="126" spans="1:10" ht="27">
       <c r="A126" s="54"/>
       <c r="B126" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C126" s="56" t="s">
+      <c r="E126" s="201"/>
+      <c r="F126" s="241"/>
+      <c r="G126" s="146"/>
+      <c r="H126" s="145"/>
+      <c r="I126" s="145"/>
+      <c r="J126" s="145"/>
+    </row>
+    <row r="127" spans="1:10" ht="27">
+      <c r="A127" s="61"/>
+      <c r="B127" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D126" s="61" t="s">
+      <c r="C127" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="146"/>
-      <c r="F126" s="147"/>
-      <c r="G126" s="104"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="103"/>
-    </row>
-    <row r="127" spans="1:10" ht="27">
-      <c r="A127" s="62"/>
-      <c r="B127" s="63" t="s">
+      <c r="D127" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C127" s="64" t="s">
+      <c r="E127" s="201"/>
+      <c r="F127" s="241"/>
+      <c r="G127" s="146"/>
+      <c r="H127" s="145"/>
+      <c r="I127" s="145"/>
+      <c r="J127" s="145"/>
+    </row>
+    <row r="128" spans="1:10" ht="27">
+      <c r="A128" s="61"/>
+      <c r="B128" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="201"/>
+      <c r="F128" s="241"/>
+      <c r="G128" s="146"/>
+      <c r="H128" s="145"/>
+      <c r="I128" s="145"/>
+      <c r="J128" s="145"/>
+    </row>
+    <row r="129" spans="1:10" ht="54">
+      <c r="A129" s="61"/>
+      <c r="B129" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="201"/>
+      <c r="F129" s="241"/>
+      <c r="G129" s="146"/>
+      <c r="H129" s="145"/>
+      <c r="I129" s="145"/>
+      <c r="J129" s="145"/>
+    </row>
+    <row r="130" spans="1:10" ht="27">
+      <c r="A130" s="61"/>
+      <c r="B130" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E130" s="201"/>
+      <c r="F130" s="241"/>
+      <c r="G130" s="146"/>
+      <c r="H130" s="145"/>
+      <c r="I130" s="145"/>
+      <c r="J130" s="145"/>
+    </row>
+    <row r="131" spans="1:10" ht="26">
+      <c r="A131" s="65"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="201"/>
+      <c r="F131" s="241"/>
+      <c r="G131" s="146"/>
+      <c r="H131" s="145"/>
+      <c r="I131" s="145"/>
+      <c r="J131" s="145"/>
+    </row>
+    <row r="132" spans="1:10" ht="29">
+      <c r="A132" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="126"/>
+      <c r="E132" s="126"/>
+      <c r="F132" s="126"/>
+      <c r="G132" s="126"/>
+      <c r="H132" s="126"/>
+      <c r="I132" s="126"/>
+      <c r="J132" s="126"/>
+    </row>
+    <row r="133" spans="1:10" ht="31" thickBot="1">
+      <c r="A133" s="66"/>
+      <c r="B133" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="116"/>
+      <c r="D133" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="116"/>
+      <c r="F133" s="115" t="s">
+        <v>133</v>
+      </c>
+      <c r="G133" s="116"/>
+      <c r="H133" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
+    </row>
+    <row r="134" spans="1:10" ht="30">
+      <c r="A134" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="65" t="s">
+      <c r="C134" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E127" s="146"/>
-      <c r="F127" s="147"/>
-      <c r="G127" s="104"/>
-      <c r="H127" s="103"/>
-      <c r="I127" s="103"/>
-      <c r="J127" s="103"/>
-    </row>
-    <row r="128" spans="1:10" ht="27">
-      <c r="A128" s="62"/>
-      <c r="B128" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="146"/>
-      <c r="F128" s="147"/>
-      <c r="G128" s="104"/>
-      <c r="H128" s="103"/>
-      <c r="I128" s="103"/>
-      <c r="J128" s="103"/>
-    </row>
-    <row r="129" spans="1:10" ht="54">
-      <c r="A129" s="62"/>
-      <c r="B129" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D129" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E129" s="146"/>
-      <c r="F129" s="147"/>
-      <c r="G129" s="104"/>
-      <c r="H129" s="103"/>
-      <c r="I129" s="103"/>
-      <c r="J129" s="103"/>
-    </row>
-    <row r="130" spans="1:10" ht="27">
-      <c r="A130" s="62"/>
-      <c r="B130" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D130" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E130" s="146"/>
-      <c r="F130" s="147"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="103"/>
-    </row>
-    <row r="131" spans="1:10" ht="26">
-      <c r="A131" s="66"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="146"/>
-      <c r="F131" s="147"/>
-      <c r="G131" s="104"/>
-      <c r="H131" s="103"/>
-      <c r="I131" s="103"/>
-      <c r="J131" s="103"/>
-    </row>
-    <row r="132" spans="1:10" ht="29">
-      <c r="A132" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" s="135"/>
-      <c r="C132" s="135"/>
-      <c r="D132" s="135"/>
-      <c r="E132" s="135"/>
-      <c r="F132" s="135"/>
-      <c r="G132" s="135"/>
-      <c r="H132" s="135"/>
-      <c r="I132" s="135"/>
-      <c r="J132" s="135"/>
-    </row>
-    <row r="133" spans="1:10" ht="31" thickBot="1">
-      <c r="A133" s="67"/>
-      <c r="B133" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" s="125"/>
-      <c r="D133" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="125"/>
-      <c r="F133" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" s="125"/>
-      <c r="H133" s="129" t="s">
-        <v>197</v>
-      </c>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-    </row>
-    <row r="134" spans="1:10" ht="30">
-      <c r="A134" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C134" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F134" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H134" s="131"/>
-      <c r="I134" s="130"/>
-      <c r="J134" s="130"/>
+      <c r="D134" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="122"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
     </row>
     <row r="135" spans="1:10" ht="26">
       <c r="A135" s="35">
@@ -12138,13 +12120,13 @@
       </c>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="73"/>
-      <c r="H135" s="131"/>
-      <c r="I135" s="130"/>
-      <c r="J135" s="130"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="122"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="121"/>
     </row>
     <row r="136" spans="1:10" ht="26">
       <c r="A136" s="35">
@@ -12152,13 +12134,13 @@
       </c>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="73"/>
-      <c r="H136" s="131"/>
-      <c r="I136" s="130"/>
-      <c r="J136" s="130"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="72"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="122"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="121"/>
     </row>
     <row r="137" spans="1:10" ht="26">
       <c r="A137" s="35">
@@ -12166,13 +12148,13 @@
       </c>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="73"/>
-      <c r="G137" s="73"/>
-      <c r="H137" s="131"/>
-      <c r="I137" s="130"/>
-      <c r="J137" s="130"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="122"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="121"/>
     </row>
     <row r="138" spans="1:10" ht="26">
       <c r="A138" s="35">
@@ -12180,13 +12162,13 @@
       </c>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="75"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="131"/>
-      <c r="I138" s="130"/>
-      <c r="J138" s="130"/>
+      <c r="D138" s="73"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="122"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
     </row>
     <row r="139" spans="1:10" ht="26">
       <c r="A139" s="35">
@@ -12194,13 +12176,13 @@
       </c>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="75"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="130"/>
-      <c r="J139" s="130"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="122"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="121"/>
     </row>
     <row r="140" spans="1:10" ht="26">
       <c r="A140" s="35">
@@ -12208,13 +12190,13 @@
       </c>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="75"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="73"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="130"/>
-      <c r="J140" s="130"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="122"/>
+      <c r="I140" s="121"/>
+      <c r="J140" s="121"/>
     </row>
     <row r="141" spans="1:10" ht="26">
       <c r="A141" s="35">
@@ -12222,13 +12204,13 @@
       </c>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="75"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="131"/>
-      <c r="I141" s="130"/>
-      <c r="J141" s="130"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="122"/>
+      <c r="I141" s="121"/>
+      <c r="J141" s="121"/>
     </row>
     <row r="142" spans="1:10" ht="26">
       <c r="A142" s="35">
@@ -12236,13 +12218,13 @@
       </c>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="73"/>
-      <c r="H142" s="131"/>
-      <c r="I142" s="130"/>
-      <c r="J142" s="130"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="72"/>
+      <c r="G142" s="72"/>
+      <c r="H142" s="122"/>
+      <c r="I142" s="121"/>
+      <c r="J142" s="121"/>
     </row>
     <row r="143" spans="1:10" ht="26">
       <c r="A143" s="35">
@@ -12250,13 +12232,13 @@
       </c>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="75"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="73"/>
-      <c r="H143" s="131"/>
-      <c r="I143" s="130"/>
-      <c r="J143" s="130"/>
+      <c r="D143" s="73"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="122"/>
+      <c r="I143" s="121"/>
+      <c r="J143" s="121"/>
     </row>
     <row r="144" spans="1:10" ht="26">
       <c r="A144" s="35">
@@ -12264,13 +12246,13 @@
       </c>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="75"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="73"/>
-      <c r="H144" s="131"/>
-      <c r="I144" s="130"/>
-      <c r="J144" s="130"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="122"/>
+      <c r="I144" s="121"/>
+      <c r="J144" s="121"/>
     </row>
     <row r="145" spans="1:10" ht="26">
       <c r="A145" s="35">
@@ -12278,41 +12260,41 @@
       </c>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="75"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="73"/>
-      <c r="H145" s="131"/>
-      <c r="I145" s="130"/>
-      <c r="J145" s="130"/>
+      <c r="D145" s="73"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="122"/>
+      <c r="I145" s="121"/>
+      <c r="J145" s="121"/>
     </row>
     <row r="146" spans="1:10" ht="26">
       <c r="A146" s="35">
         <v>12</v>
       </c>
-      <c r="B146" s="76"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="75"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="131"/>
-      <c r="I146" s="130"/>
-      <c r="J146" s="130"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="122"/>
+      <c r="I146" s="121"/>
+      <c r="J146" s="121"/>
     </row>
     <row r="147" spans="1:10" ht="26">
       <c r="A147" s="35">
         <v>13</v>
       </c>
-      <c r="B147" s="76"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="75"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="73"/>
-      <c r="H147" s="131"/>
-      <c r="I147" s="130"/>
-      <c r="J147" s="130"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="72"/>
+      <c r="G147" s="72"/>
+      <c r="H147" s="122"/>
+      <c r="I147" s="121"/>
+      <c r="J147" s="121"/>
     </row>
     <row r="148" spans="1:10" ht="26">
       <c r="A148" s="35">
@@ -12320,13 +12302,13 @@
       </c>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="73"/>
-      <c r="G148" s="73"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="130"/>
-      <c r="J148" s="130"/>
+      <c r="D148" s="73"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="122"/>
+      <c r="I148" s="121"/>
+      <c r="J148" s="121"/>
     </row>
     <row r="149" spans="1:10" ht="26">
       <c r="A149" s="35">
@@ -12334,13 +12316,13 @@
       </c>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="75"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="131"/>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="72"/>
+      <c r="G149" s="72"/>
+      <c r="H149" s="122"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="121"/>
     </row>
     <row r="150" spans="1:10" ht="26">
       <c r="A150" s="35">
@@ -12348,13 +12330,13 @@
       </c>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="74"/>
-      <c r="E150" s="75"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="73"/>
-      <c r="H150" s="131"/>
-      <c r="I150" s="130"/>
-      <c r="J150" s="130"/>
+      <c r="D150" s="73"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="72"/>
+      <c r="G150" s="72"/>
+      <c r="H150" s="122"/>
+      <c r="I150" s="121"/>
+      <c r="J150" s="121"/>
     </row>
     <row r="151" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A151" s="35">
@@ -12362,13 +12344,13 @@
       </c>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="73"/>
-      <c r="G151" s="73"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="130"/>
-      <c r="J151" s="130"/>
+      <c r="D151" s="73"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="122"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="121"/>
     </row>
     <row r="152" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A152" s="35">
@@ -12376,13 +12358,13 @@
       </c>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="73"/>
-      <c r="H152" s="131"/>
-      <c r="I152" s="130"/>
-      <c r="J152" s="130"/>
+      <c r="D152" s="73"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="72"/>
+      <c r="H152" s="122"/>
+      <c r="I152" s="121"/>
+      <c r="J152" s="121"/>
     </row>
     <row r="153" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A153" s="35">
@@ -12390,13 +12372,13 @@
       </c>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="75"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="131"/>
-      <c r="I153" s="130"/>
-      <c r="J153" s="130"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="122"/>
+      <c r="I153" s="121"/>
+      <c r="J153" s="121"/>
     </row>
     <row r="154" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A154" s="35">
@@ -12404,13 +12386,13 @@
       </c>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="131"/>
-      <c r="I154" s="130"/>
-      <c r="J154" s="130"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="122"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="121"/>
     </row>
     <row r="155" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A155" s="35">
@@ -12418,13 +12400,13 @@
       </c>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="75"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="130"/>
-      <c r="J155" s="130"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="122"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="121"/>
     </row>
     <row r="156" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A156" s="35">
@@ -12432,13 +12414,13 @@
       </c>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="73"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="130"/>
-      <c r="J156" s="130"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="122"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="121"/>
     </row>
     <row r="157" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A157" s="35">
@@ -12446,13 +12428,13 @@
       </c>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="73"/>
-      <c r="H157" s="131"/>
-      <c r="I157" s="130"/>
-      <c r="J157" s="130"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="122"/>
+      <c r="I157" s="121"/>
+      <c r="J157" s="121"/>
     </row>
     <row r="158" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A158" s="35">
@@ -12460,13 +12442,13 @@
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="73"/>
-      <c r="H158" s="131"/>
-      <c r="I158" s="130"/>
-      <c r="J158" s="130"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="72"/>
+      <c r="G158" s="72"/>
+      <c r="H158" s="122"/>
+      <c r="I158" s="121"/>
+      <c r="J158" s="121"/>
     </row>
     <row r="159" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A159" s="35">
@@ -12474,13 +12456,13 @@
       </c>
       <c r="B159" s="37"/>
       <c r="C159" s="37"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="75"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="131"/>
-      <c r="I159" s="130"/>
-      <c r="J159" s="130"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="122"/>
+      <c r="I159" s="121"/>
+      <c r="J159" s="121"/>
     </row>
     <row r="160" spans="1:10" s="8" customFormat="1" ht="26">
       <c r="A160" s="35">
@@ -12488,13 +12470,13 @@
       </c>
       <c r="B160" s="37"/>
       <c r="C160" s="37"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="73"/>
-      <c r="H160" s="131"/>
-      <c r="I160" s="130"/>
-      <c r="J160" s="130"/>
+      <c r="D160" s="73"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="122"/>
+      <c r="I160" s="121"/>
+      <c r="J160" s="121"/>
     </row>
     <row r="161" spans="1:11" s="8" customFormat="1" ht="26">
       <c r="A161" s="35">
@@ -12502,13 +12484,13 @@
       </c>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="75"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="73"/>
-      <c r="H161" s="131"/>
-      <c r="I161" s="130"/>
-      <c r="J161" s="130"/>
+      <c r="D161" s="73"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="72"/>
+      <c r="G161" s="72"/>
+      <c r="H161" s="122"/>
+      <c r="I161" s="121"/>
+      <c r="J161" s="121"/>
     </row>
     <row r="162" spans="1:11" s="8" customFormat="1" ht="26">
       <c r="A162" s="35">
@@ -12516,13 +12498,13 @@
       </c>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="75"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="73"/>
-      <c r="H162" s="131"/>
-      <c r="I162" s="130"/>
-      <c r="J162" s="130"/>
+      <c r="D162" s="73"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="122"/>
+      <c r="I162" s="121"/>
+      <c r="J162" s="121"/>
     </row>
     <row r="163" spans="1:11" s="8" customFormat="1" ht="26">
       <c r="A163" s="35">
@@ -12530,13 +12512,13 @@
       </c>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
-      <c r="D163" s="74"/>
-      <c r="E163" s="75"/>
-      <c r="F163" s="73"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="131"/>
-      <c r="I163" s="130"/>
-      <c r="J163" s="130"/>
+      <c r="D163" s="73"/>
+      <c r="E163" s="74"/>
+      <c r="F163" s="72"/>
+      <c r="G163" s="72"/>
+      <c r="H163" s="122"/>
+      <c r="I163" s="121"/>
+      <c r="J163" s="121"/>
       <c r="K163" s="9"/>
     </row>
     <row r="164" spans="1:11" s="8" customFormat="1" ht="27" thickBot="1">
@@ -12545,13 +12527,13 @@
       </c>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="75"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="73"/>
-      <c r="H164" s="132"/>
-      <c r="I164" s="133"/>
-      <c r="J164" s="133"/>
+      <c r="D164" s="73"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="72"/>
+      <c r="H164" s="123"/>
+      <c r="I164" s="124"/>
+      <c r="J164" s="124"/>
       <c r="K164" s="9"/>
     </row>
     <row r="165" spans="1:11" s="8" customFormat="1">
@@ -12935,22 +12917,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H133:J164"/>
-    <mergeCell ref="A132:J132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A117:J117"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="E122:F131"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="H16:J116"/>
     <mergeCell ref="H118:J131"/>
     <mergeCell ref="G118:G131"/>
     <mergeCell ref="G16:G116"/>
@@ -12962,6 +12928,22 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J14"/>
     <mergeCell ref="C13:G13"/>
+    <mergeCell ref="E121:F131"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H133:J164"/>
+    <mergeCell ref="A132:J132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H16:J116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12997,535 +12979,535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="27" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="A1" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" s="26" customFormat="1" ht="71" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+    </row>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="19">
+      <c r="A3" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="31">
+      <c r="A4" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+    </row>
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="110" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="176"/>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="31">
+      <c r="A6" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="23" customHeight="1">
+      <c r="A7" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="111"/>
+      <c r="G7" s="113" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="111"/>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="31">
+      <c r="A8" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="31">
+      <c r="A9" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+    </row>
+    <row r="10" spans="1:8" s="85" customFormat="1" ht="62" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-    </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="19">
-      <c r="A3" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="31">
-      <c r="A4" s="234" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-    </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="236" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="238" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="245"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="31">
-      <c r="A6" s="234" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-    </row>
-    <row r="7" spans="1:8" s="20" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="241" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="241" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="239"/>
-      <c r="G7" s="241" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="239"/>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="31">
-      <c r="A8" s="234" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="31">
-      <c r="A9" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-    </row>
-    <row r="10" spans="1:8" s="86" customFormat="1" ht="62" customHeight="1">
-      <c r="A10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="90" t="s">
+      <c r="G10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="85" customFormat="1" ht="35" customHeight="1">
+      <c r="A11" s="173"/>
+      <c r="B11" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="164"/>
+      <c r="D11" s="167" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="85" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="173"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="86" customFormat="1" ht="35" customHeight="1">
-      <c r="A11" s="198"/>
-      <c r="B11" s="199" t="s">
+    <row r="13" spans="1:8" s="85" customFormat="1" ht="31">
+      <c r="A13" s="173"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="85" customFormat="1" ht="31">
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="85" customFormat="1" ht="31">
+      <c r="A15" s="86"/>
+      <c r="B15" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="191"/>
-      <c r="D11" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="86" customFormat="1" ht="28" customHeight="1">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="86" customFormat="1" ht="31">
-      <c r="A13" s="198"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="86" customFormat="1" ht="31">
-      <c r="A14" s="198"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="86" customFormat="1" ht="31">
-      <c r="A15" s="87"/>
-      <c r="B15" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="189"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="181"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
     </row>
     <row r="16" spans="1:8" s="13" customFormat="1" ht="29">
-      <c r="A16" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
+      <c r="A16" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="23" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="155" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="155"/>
+        <v>142</v>
+      </c>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="144"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="35">
         <v>1</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A19" s="35">
         <v>2</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="35">
         <v>3</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="35">
         <v>4</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="35">
         <v>5</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="35">
         <v>6</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="35">
         <v>7</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="35">
         <v>8</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="35">
         <v>9</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="35">
         <v>10</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="35">
         <v>11</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="35">
         <v>12</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="35">
         <v>13</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="35">
         <v>14</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="35">
         <v>15</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="35">
         <v>16</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="35">
         <v>17</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="35">
         <v>18</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="35">
         <v>19</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="197"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="35">
         <v>20</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="197"/>
-      <c r="F37" s="197"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
     </row>
     <row r="38" spans="1:12" s="13" customFormat="1" ht="29" customHeight="1">
-      <c r="A38" s="134" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
+      <c r="A38" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" ht="50" customHeight="1">
-      <c r="A39" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="103"/>
+      <c r="E39" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="145" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="145"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="50" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55" t="s">
         <v>2</v>
       </c>
@@ -13535,274 +13517,274 @@
       <c r="D40" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="83" t="s">
-        <v>152</v>
+      <c r="E40" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
+        <v>154</v>
+      </c>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="50" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="56" t="s">
-        <v>11</v>
-      </c>
       <c r="D41" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
+        <v>154</v>
+      </c>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="50" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
+        <v>152</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="83"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="62" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="55"/>
       <c r="C43" s="56"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="29" customHeight="1">
-      <c r="A44" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
+      <c r="A44" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="29">
-      <c r="A45" s="161" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
+      <c r="A45" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="197"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="33" customHeight="1">
-      <c r="A46" s="159" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" s="160"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
+      <c r="A46" s="195" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="31" customHeight="1">
-      <c r="A47" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="95" t="s">
+      <c r="A47" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="198"/>
+    </row>
+    <row r="48" spans="1:12" ht="26">
+      <c r="A48" s="92"/>
+      <c r="B48" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="177" t="s">
+      <c r="C48" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="180"/>
+      <c r="E48" s="180"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="200"/>
+    </row>
+    <row r="49" spans="1:9" ht="129" customHeight="1">
+      <c r="A49" s="95"/>
+      <c r="B49" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="162" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="162"/>
-    </row>
-    <row r="48" spans="1:12" ht="26">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94" t="s">
+      <c r="C49" s="185" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="202"/>
+    </row>
+    <row r="50" spans="1:9" ht="26">
+      <c r="A50" s="96"/>
+      <c r="B50" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="174" t="s">
+      <c r="C50" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="193"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="202"/>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="95"/>
+      <c r="B51" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="210" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="202"/>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52" s="195" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+    </row>
+    <row r="53" spans="1:9" ht="31">
+      <c r="A53" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="198"/>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" ht="26">
+      <c r="A54" s="95"/>
+      <c r="B54" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="179" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="180"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="203"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" s="8" customFormat="1" ht="26">
+      <c r="A55" s="98"/>
+      <c r="B55" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="175"/>
-      <c r="E48" s="175"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="164"/>
-    </row>
-    <row r="49" spans="1:9" ht="129" customHeight="1">
-      <c r="A49" s="96"/>
-      <c r="B49" s="91" t="s">
+      <c r="D55" s="208"/>
+      <c r="E55" s="208"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" s="8" customFormat="1" ht="30">
+      <c r="A56" s="95"/>
+      <c r="B56" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="182" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="166"/>
-    </row>
-    <row r="50" spans="1:9" ht="26">
-      <c r="A50" s="97"/>
-      <c r="B50" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="166"/>
-    </row>
-    <row r="51" spans="1:9" ht="30">
-      <c r="A51" s="96"/>
-      <c r="B51" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="166"/>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="159" t="s">
+      <c r="C56" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-    </row>
-    <row r="53" spans="1:9" ht="31">
-      <c r="A53" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="177" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="162" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="162"/>
-    </row>
-    <row r="54" spans="1:9" s="8" customFormat="1" ht="26">
-      <c r="A54" s="96"/>
-      <c r="B54" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="174" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="175"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" s="8" customFormat="1" ht="26">
-      <c r="A55" s="99"/>
-      <c r="B55" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="171" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" s="8" customFormat="1" ht="30">
-      <c r="A56" s="96"/>
-      <c r="B56" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="170"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="193"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="206"/>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" s="8" customFormat="1">
@@ -14103,6 +14085,26 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
   <mergeCells count="36">
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G48:H51"/>
+    <mergeCell ref="G54:H56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G39:H43"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="A16:H16"/>
@@ -14119,26 +14121,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G39:H43"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G48:H51"/>
-    <mergeCell ref="G54:H56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C50:F50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -14175,533 +14157,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1" ht="43" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="A1" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" s="26" customFormat="1" ht="71" customHeight="1">
-      <c r="A2" s="200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="A2" s="237" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:9" s="28" customFormat="1" ht="19">
-      <c r="A3" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="A3" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="31">
-      <c r="A4" s="234" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
+      <c r="A4" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="238" t="s">
+      <c r="F5" s="112"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="31">
+      <c r="A6" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="23" customHeight="1">
+      <c r="A7" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="238" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="31">
-      <c r="A6" s="234" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="241" t="s">
+      <c r="D7" s="114"/>
+      <c r="E7" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="241" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="241" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="239"/>
-      <c r="G7" s="241" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" ht="31">
-      <c r="A8" s="234" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
-      <c r="G8" s="235"/>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
+      <c r="A8" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="31">
-      <c r="A9" s="203" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-    </row>
-    <row r="10" spans="1:9" s="86" customFormat="1" ht="62" customHeight="1">
-      <c r="A10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="207" t="s">
+      <c r="A9" s="212" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+    </row>
+    <row r="10" spans="1:9" s="85" customFormat="1" ht="62" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+    </row>
+    <row r="11" spans="1:9" s="85" customFormat="1" ht="31">
+      <c r="A11" s="173" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="227" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="231"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="233"/>
+    </row>
+    <row r="12" spans="1:9" s="85" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="173"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="223"/>
-    </row>
-    <row r="11" spans="1:9" s="86" customFormat="1" ht="31">
-      <c r="A11" s="198" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="199" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="201" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="224"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="226"/>
-    </row>
-    <row r="12" spans="1:9" s="86" customFormat="1" ht="28" customHeight="1">
-      <c r="A12" s="198"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="227"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="229"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="236"/>
     </row>
     <row r="13" spans="1:9" s="13" customFormat="1" ht="29">
-      <c r="A13" s="203" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
+      <c r="A13" s="212" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="F14" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="G14" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="209" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="210"/>
+        <v>213</v>
+      </c>
+      <c r="H14" s="215" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="216"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="35">
         <v>1</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="35">
         <v>2</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="212"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="218"/>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A17" s="35">
         <v>3</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="212"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="218"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="21" customHeight="1">
       <c r="A18" s="35">
         <v>4</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="218"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="35">
         <v>5</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="212"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="218"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="35">
         <v>6</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="212"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="218"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="35">
         <v>7</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="218"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="35">
         <v>8</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="212"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="218"/>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="35">
         <v>9</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="212"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="35">
         <v>10</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="212"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="218"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="35">
         <v>11</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="212"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="218"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="35">
         <v>12</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="212"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="218"/>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="35">
         <v>13</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="218"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="35">
         <v>14</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="212"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="218"/>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="35">
         <v>15</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="212"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="218"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="35">
         <v>16</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="218"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="35">
         <v>17</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="212"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="218"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="35">
         <v>18</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="212"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="218"/>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="35">
         <v>19</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="212"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="218"/>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="35">
         <v>20</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="214"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="220"/>
     </row>
     <row r="35" spans="1:13" s="13" customFormat="1" ht="29" customHeight="1">
-      <c r="A35" s="233" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
+      <c r="A35" s="214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="214"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="50" customHeight="1">
-      <c r="A36" s="231" t="s">
-        <v>176</v>
+      <c r="A36" s="106" t="s">
+        <v>174</v>
       </c>
       <c r="B36" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="232" t="s">
-        <v>179</v>
+      <c r="E36" s="107" t="s">
+        <v>177</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="219"/>
-      <c r="H36" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" s="216"/>
+        <v>155</v>
+      </c>
+      <c r="G36" s="225"/>
+      <c r="H36" s="221" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="222"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="50" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="55" t="s">
         <v>2</v>
       </c>
@@ -14711,182 +14693,182 @@
       <c r="D37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="83" t="s">
-        <v>152</v>
+      <c r="E37" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37" s="219"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="216"/>
+        <v>202</v>
+      </c>
+      <c r="G37" s="225"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="222"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
     <row r="38" spans="1:13" ht="50" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="56" t="s">
-        <v>11</v>
-      </c>
       <c r="D38" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="83" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="219"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="216"/>
+        <v>202</v>
+      </c>
+      <c r="G38" s="225"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="222"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="50" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="56" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="84"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="216"/>
+        <v>152</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="83"/>
+      <c r="G39" s="225"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="222"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="62" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="55"/>
       <c r="C40" s="56"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="218"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="224"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="29" customHeight="1">
-      <c r="A41" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
+      <c r="A41" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:13" ht="29">
-      <c r="A42" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
+      <c r="A42" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" ht="33" customHeight="1">
-      <c r="A43" s="159" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
+      <c r="A43" s="195" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13" ht="31" customHeight="1">
-      <c r="A44" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="95" t="s">
+      <c r="A44" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="198"/>
+      <c r="I44" s="198"/>
+    </row>
+    <row r="45" spans="1:13" ht="26">
+      <c r="A45" s="92"/>
+      <c r="B45" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="177" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="162" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-    </row>
-    <row r="45" spans="1:13" ht="26">
-      <c r="A45" s="93"/>
-      <c r="B45" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
+      <c r="C45" s="179" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="200"/>
     </row>
     <row r="46" spans="1:13" ht="30">
-      <c r="A46" s="96"/>
-      <c r="B46" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="185" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="208"/>
-      <c r="I46" s="166"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="210" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="202"/>
+      <c r="I46" s="202"/>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1">
       <c r="A47" s="5"/>
@@ -15215,6 +15197,26 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
   <mergeCells count="27">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G10:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="H14:I34"/>
+    <mergeCell ref="H36:I40"/>
+    <mergeCell ref="G36:G40"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="C44:F44"/>
@@ -15222,26 +15224,6 @@
     <mergeCell ref="C45:F45"/>
     <mergeCell ref="G45:I46"/>
     <mergeCell ref="C46:F46"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="H14:I34"/>
-    <mergeCell ref="H36:I40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G10:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15280,25 +15262,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -15306,45 +15288,45 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -15352,249 +15334,249 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J9" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="10:10">
       <c r="J22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="10:10">
       <c r="J24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="10:10">
       <c r="J25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="10:10">
       <c r="J26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="10:10">
       <c r="J29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="10:10">
       <c r="J32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="10:10">
